--- a/storage/excel_form.xlsx
+++ b/storage/excel_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emtiaz Maruf\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36d644b20a8d3954/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +386,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +398,7 @@
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
